--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp10</t>
+  </si>
+  <si>
+    <t>Acvrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp10</t>
-  </si>
-  <si>
-    <t>Acvrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N2">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O2">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P2">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q2">
-        <v>8.242799461702166</v>
+        <v>15.240544225092</v>
       </c>
       <c r="R2">
-        <v>49.456796770213</v>
+        <v>91.443265350552</v>
       </c>
       <c r="S2">
-        <v>0.1813830465524818</v>
+        <v>0.3563603059139592</v>
       </c>
       <c r="T2">
-        <v>0.1363903490611921</v>
+        <v>0.3064567359758236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H3">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
         <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P3">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q3">
-        <v>3.506035490498334</v>
+        <v>3.515906472006666</v>
       </c>
       <c r="R3">
-        <v>31.554319414485</v>
+        <v>31.64315824805999</v>
       </c>
       <c r="S3">
-        <v>0.07715041492182437</v>
+        <v>0.08221028641919126</v>
       </c>
       <c r="T3">
-        <v>0.08701947801686195</v>
+        <v>0.1060467269567861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N4">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O4">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P4">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q4">
-        <v>2.84643107231</v>
+        <v>2.133211835370222</v>
       </c>
       <c r="R4">
-        <v>25.61787965079</v>
+        <v>19.198906518332</v>
       </c>
       <c r="S4">
-        <v>0.0626358001424214</v>
+        <v>0.04987958507283698</v>
       </c>
       <c r="T4">
-        <v>0.07064815709785827</v>
+        <v>0.06434190865076618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N5">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O5">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P5">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q5">
-        <v>0.6548193441521667</v>
+        <v>0.8301785997300001</v>
       </c>
       <c r="R5">
-        <v>3.928916064913</v>
+        <v>4.98107159838</v>
       </c>
       <c r="S5">
-        <v>0.01440931908336043</v>
+        <v>0.01941155744792436</v>
       </c>
       <c r="T5">
-        <v>0.01083503721471004</v>
+        <v>0.01669322434899465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H6">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N6">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O6">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P6">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q6">
-        <v>7.460091225691222</v>
+        <v>0.6368911607102222</v>
       </c>
       <c r="R6">
-        <v>67.14082103122099</v>
+        <v>5.732020446392</v>
       </c>
       <c r="S6">
-        <v>0.1641595286118832</v>
+        <v>0.01489203571161983</v>
       </c>
       <c r="T6">
-        <v>0.1851587772505837</v>
+        <v>0.01920990320953551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H7">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N7">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O7">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P7">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q7">
-        <v>3.441111750594778</v>
+        <v>1.475790753952</v>
       </c>
       <c r="R7">
-        <v>30.970005755353</v>
+        <v>13.282116785568</v>
       </c>
       <c r="S7">
-        <v>0.0757217661002678</v>
+        <v>0.03450751080643596</v>
       </c>
       <c r="T7">
-        <v>0.08540807677103288</v>
+        <v>0.0445127822300617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H8">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I8">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J8">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N8">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O8">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P8">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q8">
-        <v>6.081047975614499</v>
+        <v>12.108465538461</v>
       </c>
       <c r="R8">
-        <v>36.486287853687</v>
+        <v>72.650793230766</v>
       </c>
       <c r="S8">
-        <v>0.1338136410055264</v>
+        <v>0.283124829383089</v>
       </c>
       <c r="T8">
-        <v>0.1006207005163078</v>
+        <v>0.2434769239069021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H9">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I9">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J9">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N9">
         <v>28.703985</v>
       </c>
       <c r="O9">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P9">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q9">
-        <v>2.586544792335</v>
+        <v>2.793353814928333</v>
       </c>
       <c r="R9">
-        <v>23.278903131015</v>
+        <v>25.140184334355</v>
       </c>
       <c r="S9">
-        <v>0.05691699484598361</v>
+        <v>0.06531528043302383</v>
       </c>
       <c r="T9">
-        <v>0.06419780356080547</v>
+        <v>0.08425310276707501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H10">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I10">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J10">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N10">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O10">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P10">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q10">
-        <v>2.09992782069</v>
+        <v>1.694816248903444</v>
       </c>
       <c r="R10">
-        <v>18.89935038621</v>
+        <v>15.253346240131</v>
       </c>
       <c r="S10">
-        <v>0.04620897395681765</v>
+        <v>0.03962884973181031</v>
       </c>
       <c r="T10">
-        <v>0.05212001513525955</v>
+        <v>0.05111902646454905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H11">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I11">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J11">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N11">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O11">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P11">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q11">
-        <v>0.4830868281645</v>
+        <v>0.6595688984025001</v>
       </c>
       <c r="R11">
-        <v>2.898520968987</v>
+        <v>3.957413390415001</v>
       </c>
       <c r="S11">
-        <v>0.01063033997720935</v>
+        <v>0.01542229535472046</v>
       </c>
       <c r="T11">
-        <v>0.007993447059624825</v>
+        <v>0.0132626058997824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H12">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I12">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J12">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N12">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O12">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P12">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q12">
-        <v>5.503612317230999</v>
+        <v>0.5060038904984445</v>
       </c>
       <c r="R12">
-        <v>49.532510855079</v>
+        <v>4.554035014486001</v>
       </c>
       <c r="S12">
-        <v>0.1211071522219198</v>
+        <v>0.01183157888251794</v>
       </c>
       <c r="T12">
-        <v>0.1365991509072094</v>
+        <v>0.01526208300533493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H13">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I13">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J13">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N13">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O13">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P13">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q13">
-        <v>2.538647912282999</v>
+        <v>1.172501534216</v>
       </c>
       <c r="R13">
-        <v>22.847831210547</v>
+        <v>10.552513807944</v>
       </c>
       <c r="S13">
-        <v>0.05586302258030428</v>
+        <v>0.0274158848428707</v>
       </c>
       <c r="T13">
-        <v>0.06300900740855406</v>
+        <v>0.03536497658438885</v>
       </c>
     </row>
   </sheetData>
